--- a/completezza funzionale_frontend.xlsx
+++ b/completezza funzionale_frontend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5E202-BA4A-4DFB-9D3B-9570348E956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358673A-EF27-4523-9EF6-9A8A126CE385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1035" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>DISEGNO XML PAGINE STATICHE</t>
+  </si>
+  <si>
+    <t>Login/SignUp</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Avvisi</t>
+  </si>
+  <si>
+    <t>Risorse Umane</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>PersonalizzazioneRistorante</t>
+  </si>
+  <si>
+    <t>GestioneProfilo</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,43 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -215,7 +275,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4308D9E-9884-418A-9C23-B668F99BD116}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4308D9E-9884-418A-9C23-B668F99BD116}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:I13" xr:uid="{D4308D9E-9884-418A-9C23-B668F99BD116}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -228,7 +288,7 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C9340832-7974-41A1-B8C8-53D8FD0599FD}" name="STEP" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C9340832-7974-41A1-B8C8-53D8FD0599FD}" name="STEP" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{D418CEA3-FC0B-4380-AF13-8EB0BF6988B7}" name="Funzionalità #1"/>
     <tableColumn id="3" xr3:uid="{107A1F97-5194-4511-985B-11496ED9839C}" name="Funzionalità #2"/>
     <tableColumn id="4" xr3:uid="{C9173966-C68F-4AA6-9412-7A628456FC95}" name="Funzionalità #3"/>
@@ -237,6 +297,24 @@
     <tableColumn id="7" xr3:uid="{80812BDE-50C9-4FFD-8383-5439544E703A}" name="Funzionalità #6"/>
     <tableColumn id="8" xr3:uid="{14034861-9F72-4D5C-ABFE-432A5BD72B66}" name="Funzionalità #7"/>
     <tableColumn id="9" xr3:uid="{31202016-B786-4A9A-9EC5-F091FC128363}" name="Funzionalità #8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}" name="Tabella13" displayName="Tabella13" ref="A16:I28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A16:I28" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{48A01EBC-F6CD-45F2-B0F4-73331B15F64E}" name="STEP" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0EED48F9-10EE-46F5-8E1D-26B9841F7CBD}" name="Funzionalità #1"/>
+    <tableColumn id="3" xr3:uid="{04A26795-0C82-43FB-B75E-91131B40E919}" name="Funzionalità #2"/>
+    <tableColumn id="4" xr3:uid="{AD2417EB-49FD-4FE8-8F34-F5EC88008C3C}" name="Funzionalità #3"/>
+    <tableColumn id="5" xr3:uid="{DC79AD31-BBDE-420A-A832-E6650B49D383}" name="Funzionalità #4"/>
+    <tableColumn id="6" xr3:uid="{D7176667-CF29-4785-9B66-BF6B3F350642}" name="Funzionalità #5"/>
+    <tableColumn id="7" xr3:uid="{57DB9301-4F00-42B1-AE81-134A5A620A97}" name="Funzionalità #6"/>
+    <tableColumn id="8" xr3:uid="{3D60F644-4AF2-4364-89BE-A5E35FC449EE}" name="Funzionalità #7"/>
+    <tableColumn id="9" xr3:uid="{76C0DE71-7D43-4579-9A22-2EE9AD49B31D}" name="Funzionalità #8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +688,7 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -624,12 +703,144 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/completezza funzionale_frontend.xlsx
+++ b/completezza funzionale_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358673A-EF27-4523-9EF6-9A8A126CE385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E3E3E-393F-4CE0-9D81-96874B537FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>GestioneProfilo</t>
+  </si>
+  <si>
+    <t>Finito</t>
   </si>
 </sst>
 </file>
@@ -178,12 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -586,7 +590,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,11 +763,15 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -784,6 +792,7 @@
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">

--- a/completezza funzionale_frontend.xlsx
+++ b/completezza funzionale_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E3E3E-393F-4CE0-9D81-96874B537FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1024E9-363D-402D-96C6-5F6260EB71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -114,7 +114,10 @@
     <t>GestioneProfilo</t>
   </si>
   <si>
-    <t>Finito</t>
+    <t>Login completato</t>
+  </si>
+  <si>
+    <t>SignUp completato</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +774,9 @@
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -792,7 +797,6 @@
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">

--- a/completezza funzionale_frontend.xlsx
+++ b/completezza funzionale_frontend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1024E9-363D-402D-96C6-5F6260EB71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957F6E8-B1B7-4B4D-AA96-7CB1B46F4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -84,12 +84,6 @@
     <t>STEP</t>
   </si>
   <si>
-    <t>RESPONSABILE:</t>
-  </si>
-  <si>
-    <t>DISEGNO XML PAGINE STATICHE</t>
-  </si>
-  <si>
     <t>Login/SignUp</t>
   </si>
   <si>
@@ -102,22 +96,85 @@
     <t>Risorse Umane</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Cristian</t>
-  </si>
-  <si>
     <t>PersonalizzazioneRistorante</t>
   </si>
   <si>
     <t>GestioneProfilo</t>
   </si>
   <si>
-    <t>Login completato</t>
-  </si>
-  <si>
-    <t>SignUp completato</t>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SignUp </t>
+  </si>
+  <si>
+    <t>Visualizzazione piatti (VP)</t>
+  </si>
+  <si>
+    <t>Struttura FXML statico</t>
+  </si>
+  <si>
+    <t>Struttura FXML statico delle pagine</t>
+  </si>
+  <si>
+    <t>Struttura FXML statico della pagina</t>
+  </si>
+  <si>
+    <t>VP : aggiunta card visuale dinamica</t>
+  </si>
+  <si>
+    <t>VP : aggiunta funzionalità bottoni di cancellazione piatto</t>
+  </si>
+  <si>
+    <t>VP : aggiunta funzionalità ricerca piatto</t>
+  </si>
+  <si>
+    <t>Ordina menu (OM)</t>
+  </si>
+  <si>
+    <t>OM : Aggiunta funzionalità scelta ordinamento</t>
+  </si>
+  <si>
+    <t>OM : Aggiunta funzionalità visualizza menu già presente</t>
+  </si>
+  <si>
+    <t>OM : Aggiunta funzionalità reset categoria</t>
+  </si>
+  <si>
+    <t>Modifica Piatto (MP)</t>
+  </si>
+  <si>
+    <t>MP: Inserimento dati e richieste</t>
+  </si>
+  <si>
+    <t>Aggiunta card visuale dinamica</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità scrittura avviso</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità cancellazione avviso</t>
+  </si>
+  <si>
+    <t>Aggiunta affordance</t>
+  </si>
+  <si>
+    <t>Aggiunta affordance a tutto il menu</t>
+  </si>
+  <si>
+    <t>Disegno xml pagina dispensa</t>
+  </si>
+  <si>
+    <t>Dispensa</t>
+  </si>
+  <si>
+    <t>Aggiungi Piatto(AP)</t>
+  </si>
+  <si>
+    <t>AP: Inserimento dati e richieste</t>
+  </si>
+  <si>
+    <t>AP: Inserimento automompletamento con opendata</t>
   </si>
 </sst>
 </file>
@@ -163,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,6 +231,19 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -184,13 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -310,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}" name="Tabella13" displayName="Tabella13" ref="A16:I28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A16:I28" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}" name="Tabella13" displayName="Tabella13" ref="A16:I33" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A16:I33" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{48A01EBC-F6CD-45F2-B0F4-73331B15F64E}" name="STEP" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0EED48F9-10EE-46F5-8E1D-26B9841F7CBD}" name="Funzionalità #1"/>
@@ -593,14 +664,15 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="9" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -635,7 +707,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -649,11 +721,17 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -698,9 +776,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -742,22 +818,22 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -769,82 +845,191 @@
       <c r="B18" t="s">
         <v>29</v>
       </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
     </row>
   </sheetData>

--- a/completezza funzionale_frontend.xlsx
+++ b/completezza funzionale_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957F6E8-B1B7-4B4D-AA96-7CB1B46F4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC176D-F2CB-489E-8C96-51D5651D0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -102,12 +102,6 @@
     <t>GestioneProfilo</t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SignUp </t>
-  </si>
-  <si>
     <t>Visualizzazione piatti (VP)</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Aggiunta affordance a tutto il menu</t>
   </si>
   <si>
-    <t>Disegno xml pagina dispensa</t>
-  </si>
-  <si>
     <t>Dispensa</t>
   </si>
   <si>
@@ -175,13 +166,142 @@
   </si>
   <si>
     <t>AP: Inserimento automompletamento con opendata</t>
+  </si>
+  <si>
+    <t>Step Done #11</t>
+  </si>
+  <si>
+    <t>Step Done #12</t>
+  </si>
+  <si>
+    <t>Step Done #13</t>
+  </si>
+  <si>
+    <t>Step Done #14</t>
+  </si>
+  <si>
+    <t>Step Done #15</t>
+  </si>
+  <si>
+    <t>Step Done #16</t>
+  </si>
+  <si>
+    <t>Step Done #17</t>
+  </si>
+  <si>
+    <t>Step Done #18</t>
+  </si>
+  <si>
+    <t>Step Done #19</t>
+  </si>
+  <si>
+    <t>Step Done #20</t>
+  </si>
+  <si>
+    <t>Step Done #21</t>
+  </si>
+  <si>
+    <t>Step Done #22</t>
+  </si>
+  <si>
+    <t>Creazione driver e gestione delle richieste</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità login</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità Signup</t>
+  </si>
+  <si>
+    <t>Creazione driver e gestione delle richieste Login</t>
+  </si>
+  <si>
+    <t>Creazione driver e gestione delle richieste Signup</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità modifica informazioni profilo</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità upgrade/downgrade</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità inscrizione nuova risorsa</t>
+  </si>
+  <si>
+    <t>Aggiunto Encrypting password</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità visualizza info dispendente</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità carica logo</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità modifica informazioni attività</t>
+  </si>
+  <si>
+    <t>Estetica</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Funzionalità</t>
+  </si>
+  <si>
+    <t>Struttura XML statica</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>Creazione Dialog</t>
+  </si>
+  <si>
+    <t>Creazione tabella dinamica</t>
+  </si>
+  <si>
+    <t>Gestione ricerca prodotti</t>
+  </si>
+  <si>
+    <t>Creazione controller di gesitione delle richieste</t>
+  </si>
+  <si>
+    <t>Gestione ricerca per categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea prodotto </t>
+  </si>
+  <si>
+    <t>Crea prodotto tramite Open Data</t>
+  </si>
+  <si>
+    <t>Modifica prodotto</t>
+  </si>
+  <si>
+    <t>Aggiunta affordance e feedback</t>
+  </si>
+  <si>
+    <t>Gestione degli errori</t>
+  </si>
+  <si>
+    <t>Associazione al driver utente</t>
+  </si>
+  <si>
+    <t>Controlli per ruolo</t>
+  </si>
+  <si>
+    <t>Aggiunta funzionalità modifica informazioni account</t>
+  </si>
+  <si>
+    <t>Aggiunta modalità nascondi avviso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,42 +331,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -258,10 +369,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -381,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}" name="Tabella13" displayName="Tabella13" ref="A16:I33" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A16:I33" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}" name="Tabella13" displayName="Tabella13" ref="A16:I39" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A16:I39" xr:uid="{CF704CF4-E7A5-49C9-AEA8-4A06D27827BD}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{48A01EBC-F6CD-45F2-B0F4-73331B15F64E}" name="STEP" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0EED48F9-10EE-46F5-8E1D-26B9841F7CBD}" name="Funzionalità #1"/>
@@ -661,18 +772,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="9" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="8" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,12 +821,20 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -722,7 +844,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -730,61 +864,111 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -835,7 +1019,9 @@
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,16 +1029,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>28</v>
+      <c r="G18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,13 +1052,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,43 +1075,73 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -926,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -935,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -943,94 +1174,102 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="5" t="s">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
